--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m/beer-ontology/</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr"/>
+          <t>http://purl.org/m4m-dk-2/variables/</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -450,30 +454,15 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr"/>
-      <c r="V1" t="inlineStr"/>
-      <c r="W1" t="inlineStr"/>
-      <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>beer-onto</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://purl.org/m4m/beer-ontology/</t>
-        </is>
-      </c>
+          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -491,13 +480,6 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,15 +489,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>vars</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>http://purl.org/m4m-dk-2/variables/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -532,13 +518,6 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,15 +527,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -573,13 +556,6 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,15 +565,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -614,13 +594,6 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -630,15 +603,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -655,13 +632,6 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -671,15 +641,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -696,13 +670,6 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,15 +679,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wikidata</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.wikidata.org/wiki/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -737,25 +708,14 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Beer ontology</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -774,26 +734,23 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>skos:prefLable</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beer ontology</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>M4M-DK-2 Variables</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -811,13 +768,6 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -827,10 +777,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qualitative and quantitative variables describing beer</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Quantitative and qualitative and quantitative variables describing ...</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -848,13 +802,6 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -864,10 +811,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kristina-tomicic-6bb443108/</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -885,13 +836,6 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -904,7 +848,11 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -922,13 +870,6 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -941,7 +882,11 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -959,13 +904,6 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -978,7 +916,11 @@
           <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -996,13 +938,6 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1015,7 +950,11 @@
           <t>2021-08-24T09:33+02:00</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1033,136 +972,94 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beer-onto:Deprecated</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Deprecated</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qudt:unit</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1171,32 +1068,25 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-onto:alc_percentage</t>
+          <t>vars:AtmosphericTerms</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alc_percentage</t>
+          <t>Atmospheric Terms</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Percentage of alcohol in a unit of a beer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1212,38 +1102,43 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-onto:beer_color</t>
+          <t>vars:wind_speed</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>beer_color</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Color shade of a certain beer.</t>
-        </is>
-      </c>
+          <t>wind_speed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>unit:M-PER-SEC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1253,31 +1148,16 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>beer-onto:beer_nutrition</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>beer_nutrition</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Calories in a unit of a beer.</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1294,31 +1174,16 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beer-onto:beer_bitterness</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>beer_bitterness</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>The scale of beer bitterness determining the taste of beer.</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1335,13 +1200,32 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1152,15 +1152,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:wind_direction</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>wind_direction</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers if they are properly configured and managed.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
@@ -454,6 +454,7 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +481,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,6 +520,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -556,6 +559,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +598,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -632,6 +637,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -670,6 +676,7 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -708,6 +715,7 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -734,6 +742,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -743,7 +752,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M4M-DK-2 Variables</t>
+          <t>Wastewater-2 Variables</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,6 +777,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -802,6 +812,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -836,23 +847,20 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0002-0329-0192</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,23 +878,20 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0003-2971-3402</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -904,23 +909,20 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0002-9823-589X</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -938,21 +940,22 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-24T09:33+02:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -972,15 +975,24 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -998,68 +1010,33 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>qudt:unit</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1068,25 +1045,26 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:AtmosphericTerms</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atmospheric Terms</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>2021-08-24T09:33+02:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1102,43 +1080,24 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:wind_speed</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>wind_speed</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>unit:M-PER-SEC</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1148,32 +1107,69 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:wind_direction</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wind_direction</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1182,17 +1178,26 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Atmospheric Terms</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>This is a parent concept containing controlled terms representing atmospheric variables.</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1208,17 +1213,26 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>vars:WaterTerms</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Water Terms</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>This is a parent concept containing controlled terms representing water variables.</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1234,6 +1248,1967 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vars:GenericTerms</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Generic Terms</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>This is an overarching concept containing variables that are not field specific.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vars:wind_speed</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>wind_speed</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>unit:M-PER-SEC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Speed is the magnitude of velocity. Wind is defined as a two-dimensional (horizontal) air velocity vector, with no vertical component. (Vertical motion in the atmosphere has the standard name upward_air_velocity.) The wind speed is the magnitude of the wind velocity.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vars:wind_direction</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>wind_direction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>unit:Degree</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vars:Latitude</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>vars:GenericTerms</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/latitude, https://mmisw.org/ont/cf/parameter/grid_latitude</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vars:Longitude</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>vars:GenericTerms</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/grid_longitude,https://mmisw.org/ont/cf/parameter/longitude</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vars:relative_humidity</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>relative_humidity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vars:atmospheric_pressure</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>atmospheric_pressure</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>unit:MilliBAR,unit:HectoPA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Air pressure is the force per unit area which would be exerted when the moving gas molecules of which the air is composed strike a theoretical surface of any orientation.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/air_pressure</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vars:water_temperature</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>water_temperature</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vars:Propiconazole</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Propiconazole</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>60207-90-1,1-[[2-(2,4-dichlorophenyl)-4-propyl-1,3-dioxolan-2-yl]methyl]-1,2,4-triazole</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>vars:GenericTerms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://pubchem.ncbi.nlm.nih.gov/compound/43234,</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -752,7 +752,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wastewater-2 Variables</t>
+          <t>ENVS variables</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
+          <t>2021-09-27T12:00+02:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-08-24T09:33+02:00</t>
+          <t>2021-09-27T12:00+02:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1476,7 +1476,11 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>vars:AtmosphericTerms</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1556,7 +1560,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>vars:AtmosphericTerms</t>
+          <t>vars:WaterTerms</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,6 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,7 +480,6 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -520,7 +518,6 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -559,7 +556,6 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -598,7 +594,6 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -637,7 +632,6 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,7 +670,6 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,7 +708,6 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,7 +734,6 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -777,7 +768,6 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -812,7 +802,6 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -847,7 +836,6 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -878,7 +866,6 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -909,7 +896,6 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -940,7 +926,6 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -975,7 +960,6 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -985,7 +969,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>0.1.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1010,7 +994,6 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1045,7 +1028,6 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1055,7 +1037,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-09-27T12:00+02:00</t>
+          <t>2021-09-27T13:00+02:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1080,7 +1062,6 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1107,7 +1088,6 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1127,7 +1107,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:altLabel(separator=";")</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1178,7 +1158,6 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1213,7 +1192,6 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1248,7 +1226,6 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1283,7 +1260,6 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1334,7 +1310,6 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1373,7 +1348,6 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1416,7 +1390,6 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1459,7 +1432,6 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1494,7 +1466,6 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1541,7 +1512,6 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1576,7 +1546,6 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1592,7 +1561,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60207-90-1,1-[[2-(2,4-dichlorophenyl)-4-propyl-1,3-dioxolan-2-yl]methyl]-1,2,4-triazole</t>
+          <t>60207-90-1;1-[[2-(2,4-dichlorophenyl)-4-propyl-1,3-dioxolan-2-yl]methyl]-1,2,4-triazole</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1619,7 +1588,6 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1646,7 +1614,6 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1673,7 +1640,6 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1700,7 +1666,6 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1727,7 +1692,6 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1754,7 +1718,6 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1781,7 +1744,6 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1808,7 +1770,6 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1835,7 +1796,6 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1862,7 +1822,6 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1889,7 +1848,6 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1916,7 +1874,6 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1943,7 +1900,6 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1970,7 +1926,6 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1997,7 +1952,6 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2024,7 +1978,6 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2051,7 +2004,6 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2078,7 +2030,6 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2105,7 +2056,6 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2132,7 +2082,6 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2159,7 +2108,6 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2186,7 +2134,6 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2213,7 +2160,6 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2240,7 +2186,6 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2267,7 +2212,6 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2294,7 +2238,6 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2321,7 +2264,6 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2348,7 +2290,6 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2375,7 +2316,6 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2402,7 +2342,6 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2429,7 +2368,6 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2456,7 +2394,6 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2483,7 +2420,6 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2510,7 +2446,6 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2537,7 +2472,6 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2564,7 +2498,6 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2591,7 +2524,6 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2618,7 +2550,6 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2645,7 +2576,6 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2672,7 +2602,6 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2699,7 +2628,6 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2726,7 +2654,6 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2753,7 +2680,6 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2780,7 +2706,6 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2807,7 +2732,6 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2834,7 +2758,6 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2861,7 +2784,6 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2888,7 +2810,6 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2915,7 +2836,6 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2942,7 +2862,6 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2969,7 +2888,6 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2996,7 +2914,6 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3023,7 +2940,6 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3050,7 +2966,6 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3077,7 +2992,6 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3104,7 +3018,6 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3131,7 +3044,6 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3158,7 +3070,6 @@
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3185,7 +3096,6 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3212,7 +3122,6 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
